--- a/va_facility_data_2025-02-20/Gordon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gordon%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gordon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gordon%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd558711b6b8341638e85e95ae826be53"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R022ed9157b2d41fc98c2f077d9094dd4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7bac39a5c6034cc48c3bc29baa08b66c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rac233695ddf94efdaa9a34a25c27e5b8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3eb95067781847dbb79a88c47b8490a8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9de83462ec154c379b0fb22e197023fc"/>
   </x:sheets>
 </x:workbook>
 </file>
